--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Ictus (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Ictus (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5475903340440645</v>
+        <v>0.545273631840796</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.475733333333334</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.863326851257107</v>
+        <v>1.816915422885572</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.492771923398238</v>
+        <v>6.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.85954507441149</v>
+        <v>1.830845771144278</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.676264084281729</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.157442572888172</v>
+        <v>1.339303482587064</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.889674348621756</v>
+        <v>5.400000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7213976948655836</v>
+        <v>0.6915422885572141</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.167456267987741</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2935797583507414</v>
+        <v>0.298507462686566</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.382122587292125</v>
+        <v>1.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05205219446114957</v>
+        <v>0.0527363184079602</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3262143940997885</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -691,49 +691,49 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3677338268972584</v>
+        <v>0.350248756218904</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880337469937472</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4225122784346652</v>
+        <v>0.4029850746268641</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.883288888888889</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>0.391491431730236</v>
+        <v>0.372139303482586</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.889333333333332</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2876095711916592</v>
+        <v>0.281592039800994</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.368000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07339874700571207</v>
+        <v>0.0736318407960198</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4026666666666657</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.067661691542288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4678527363184075</v>
+        <v>0.4832504145936973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.267399999999999</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5852158438576339</v>
+        <v>0.6331674958540626</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.968866666666668</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5813864013266973</v>
+        <v>0.5973466003316733</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.60384126984127</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3960961857379748</v>
+        <v>0.39038142620232</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.766592592592595</v>
+        <v>1.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1065721393034823</v>
+        <v>0.09585406301824199</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6896111403370229</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3285944975238501</v>
+        <v>0.2965174129353227</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.765736082533451</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3918271409905727</v>
+        <v>0.388723051409618</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.900230693489518</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4049559565467256</v>
+        <v>0.4006633499170806</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.039490476190475</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3585389473618319</v>
+        <v>0.373134328358208</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.802210550887022</v>
+        <v>1.866666666666666</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2269668484454547</v>
+        <v>0.223548922056384</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.140643974543974</v>
+        <v>1.133333333333334</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06120859802463539</v>
+        <v>0.06036484245439453</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4099351043462374</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2710740819710963</v>
+        <v>0.267661691542288</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.577015873015873</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8635961912630777</v>
+        <v>0.83714759535655</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.737081060059079</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9790303983330101</v>
+        <v>0.9747927031509113</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.036082312687887</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9255959070641469</v>
+        <v>0.9137645107794353</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.965544319514908</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7298928525666254</v>
+        <v>0.723714759535654</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.112192719731158</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3775447789769278</v>
+        <v>0.401990049751242</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.69364449852737</v>
+        <v>1.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08460442230461276</v>
+        <v>0.08988391376451066</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5049726581789434</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5123919292426752</v>
+        <v>0.3366500829187393</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.452266666666668</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>1.800635299692015</v>
+        <v>1.643781094527362</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.210244444444446</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
-        <v>1.768244994199042</v>
+        <v>1.748922056384742</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.021248930045981</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>1.031816394071596</v>
+        <v>1.210281923714758</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.428151680270343</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4846890951550811</v>
+        <v>0.5492537313432827</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.212237283087283</v>
+        <v>2.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09301341728107894</v>
+        <v>0.1011608623548921</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4869785627844079</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4.902756886203893</v>
+        <v>4.8776119402985</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0246</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="O8" t="n">
-        <v>22.16344550264553</v>
+        <v>21.13333333333334</v>
       </c>
       <c r="P8" t="n">
-        <v>2.31993220046951</v>
+        <v>2.23283582089552</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.886521811521828</v>
+        <v>8.999999999999998</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7154206744057485</v>
+        <v>0.6915422885572126</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>3.711799999999998</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2189170812603649</v>
+        <v>0.2029850746268655</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.321355555555554</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03127563768459278</v>
+        <v>0.02520729684908773</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3871302290302289</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6383846955697707</v>
+        <v>0.589054726368158</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.806990904027747</v>
+        <v>2.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8899821080384507</v>
+        <v>0.8616915422885562</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.838522320827893</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8947842586997102</v>
+        <v>0.8918739635157541</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.166779039479038</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7636250678250938</v>
+        <v>0.7333333333333326</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.238489999035178</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4428860937513017</v>
+        <v>0.431177446102818</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.902837642738606</v>
+        <v>1.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09392177198419477</v>
+        <v>0.09850746268656707</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5407805997656724</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.339972581536755</v>
+        <v>1.805306799336647</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11.87320202020201</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="M10" t="n">
-        <v>3.692508719390056</v>
+        <v>3.609618573797673</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>15.24163765493765</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="P10" t="n">
-        <v>1.191714905326845</v>
+        <v>1.487230514096185</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.177891005291007</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3964810945273631</v>
+        <v>0.5509121061359866</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.182534680134677</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="V10" t="n">
-        <v>0.102754997499276</v>
+        <v>0.1681592039800993</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6788625781625769</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01942061912658919</v>
+        <v>0.02454394693200653</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1976034850270094</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7767562189054718</v>
+        <v>0.7167495854063013</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.340000000000001</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56855030260875</v>
+        <v>2.569485903814246</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.444109175138593</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="M11" t="n">
-        <v>1.827241793916417</v>
+        <v>1.983084577114424</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6.592031372549021</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>1.106635187432279</v>
+        <v>1.047097844112769</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.215599638544984</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4992513944439015</v>
+        <v>0.4872305140961853</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.407214778032424</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1817703248463559</v>
+        <v>0.165837479270315</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8085999999999993</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02959852859883582</v>
+        <v>0.02985074626865667</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2478865288617498</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3463290215588713</v>
+        <v>0.2242122719734654</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.625333333333332</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>1.088238640132669</v>
+        <v>1.000663349917081</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.458133333333331</v>
+        <v>4.466666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>1.292065828385728</v>
+        <v>1.213930348258705</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5.204719047619045</v>
+        <v>4.866666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>1.037462126343073</v>
+        <v>1.072305140961856</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4.471914500749799</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6958870020779547</v>
+        <v>0.8278606965174112</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.167062209486854</v>
+        <v>3.6</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5083195401948126</v>
+        <v>0.5094527363184067</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.176795798834809</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2696003385709113</v>
+        <v>0.2630182421227187</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.379082622656965</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04662640644779939</v>
+        <v>0.0467661691542288</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.4005571713724426</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.210526011082854</v>
+        <v>4.200663349917073</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19.19668412698412</v>
+        <v>18.73333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>2.536136950845453</v>
+        <v>2.5339966832504</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>10.27650605254838</v>
+        <v>10.93333333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9764705302850814</v>
+        <v>0.9439469320066327</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.92513176638177</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3577361762615487</v>
+        <v>0.35820895522388</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.634065662333308</v>
+        <v>1.866666666666666</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1162108018265804</v>
+        <v>0.1280265339966832</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7894721359250765</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0428803967172541</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.419879265581439</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.005985240871880659</v>
+        <v>0.005306799336650073</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1446625495701785</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.093661691542288</v>
+        <v>1.286235489220563</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.416000000000001</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2790649586631</v>
+        <v>3.548590381426186</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>13.45505001114444</v>
+        <v>13.06666666666667</v>
       </c>
       <c r="M14" t="n">
-        <v>1.81490050684528</v>
+        <v>1.953897180762839</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>7.245813519813522</v>
+        <v>8.066666666666666</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7781409045795137</v>
+        <v>0.7917081260364833</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.48947157657158</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3158060175313899</v>
+        <v>0.318739635157544</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.672518844118845</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1000854331038409</v>
+        <v>0.1051409618573796</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.5932681128812702</v>
+        <v>0.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01415079174015375</v>
+        <v>0.01426202321724709</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1932288415757633</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -1669,67 +1669,67 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3622585366816702</v>
+        <v>0.378441127694858</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.614311111111111</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4127331294281537</v>
+        <v>0.5061359867330006</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.023488831538832</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4397521815663598</v>
+        <v>0.515091210613598</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.971741545600372</v>
+        <v>2.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4116468727789611</v>
+        <v>0.4772802653399653</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.006825925925925</v>
+        <v>2.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3538063338909094</v>
+        <v>0.403648424543946</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65444512154512</v>
+        <v>1.866666666666666</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2187163623919832</v>
+        <v>0.2487562189054714</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.104846284216872</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05088446918844922</v>
+        <v>0.0543946932006632</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4129354707631685</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1752,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2799917081260359</v>
+        <v>0.267661691542288</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.531647619047619</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8572864457294515</v>
+        <v>0.83714759535655</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.627418255543332</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9343948473720856</v>
+        <v>0.9747927031509113</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.865386545492119</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9313234238812158</v>
+        <v>0.9137645107794353</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.960927950698538</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7149485509128707</v>
+        <v>0.723714759535654</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.880130261541787</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3619496365232315</v>
+        <v>0.401990049751242</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.593113047008063</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08344921625456515</v>
+        <v>0.08988391376451066</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.4795041149902249</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3237501381978978</v>
+        <v>0.1031509121061353</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.566177777777779</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>1.124007794361525</v>
+        <v>0.998673300165836</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.521466666666667</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>1.386592498067621</v>
+        <v>1.451741293532338</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.572155156608096</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11109001719186</v>
+        <v>1.336318407960199</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.167411904885673</v>
+        <v>5.533333333333334</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7261734641371779</v>
+        <v>0.9864013266998333</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.328548600941975</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4963341122544093</v>
+        <v>0.6407960199004973</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.192520119176776</v>
+        <v>2.8</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2743053769174185</v>
+        <v>0.322719734660032</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.446093264121669</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.05106238502606648</v>
+        <v>0.05970149253731327</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.337109392779687</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.067661691542288</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M18" t="n">
-        <v>0.472645771144278</v>
+        <v>0.4832504145936973</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.366288888888888</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6157761194029839</v>
+        <v>0.6331674958540626</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.042088888888892</v>
+        <v>2.8</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5920398009950223</v>
+        <v>0.5973466003316733</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.64361904761905</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3983316749585387</v>
+        <v>0.39038142620232</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.837333333333337</v>
+        <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.106782200110558</v>
+        <v>0.09585406301824199</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6774716784916787</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8302810945273615</v>
+        <v>0.741293532338308</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.565444444444446</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36652736318407</v>
+        <v>2.38308457711442</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10.37006666666667</v>
+        <v>10.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.81323511259332</v>
+        <v>1.780099502487562</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.296485373885365</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9320044033081318</v>
+        <v>0.965174129353232</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.818084175084174</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4548919213456516</v>
+        <v>0.4407960199004959</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.935266616844203</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1757113875069097</v>
+        <v>0.1830845771144278</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8868952380952372</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>0.06837183131959247</v>
+        <v>0.0597014925373134</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5016051948051948</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01194964123445247</v>
+        <v>0.009950248756218902</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1941067984303274</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2364071547026757</v>
+        <v>0.2325041459369807</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.071568253968254</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7291009928711411</v>
+        <v>0.704809286898838</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.01180101010101</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9290894947988733</v>
+        <v>0.818573797678274</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4.182512207887287</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8447420180841816</v>
+        <v>0.7917081260364828</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.766787159245983</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7165125091441332</v>
+        <v>0.6752902155887227</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.974908037801412</v>
+        <v>2.8</v>
       </c>
       <c r="S20" t="n">
-        <v>0.495832958571166</v>
+        <v>0.4799336650082906</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.190452250008907</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2802101583320388</v>
+        <v>0.2812603648424533</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.476517226193508</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06336881313824573</v>
+        <v>0.06102819237147587</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.4005821713724426</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2167,67 +2167,67 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4537780739161327</v>
+        <v>0.406965174129352</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.050104761904761</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5973663969713717</v>
+        <v>0.581094527363184</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.471821702915822</v>
+        <v>2.6</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6050496503569156</v>
+        <v>0.6149253731343279</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.738442905242906</v>
+        <v>2.8</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5466485903814252</v>
+        <v>0.510447761194028</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.557105698005696</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5034469761213538</v>
+        <v>0.4696517412935319</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.246219690812567</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3244808411619151</v>
+        <v>0.283582089552238</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.34194531478021</v>
+        <v>1.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05978964530252159</v>
+        <v>0.05472636815920381</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4136811878299291</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.543340190441353</v>
+        <v>4.49684908789386</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>20.24792098561224</v>
+        <v>17.86666666666666</v>
       </c>
       <c r="M22" t="n">
-        <v>2.157708441917386</v>
+        <v>2.283582089552234</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>9.261850046685341</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="P22" t="n">
-        <v>0.688281834873252</v>
+        <v>0.7820895522388054</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.614430332630334</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2485140488036007</v>
+        <v>0.2805970149253726</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.503137566137565</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V22" t="n">
-        <v>0.07078417508417496</v>
+        <v>0.0766169154228854</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6140077404077398</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01003209159840798</v>
+        <v>0.008291873963515739</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.1919399627358986</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1666497512437807</v>
+        <v>0.1548922056384743</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9665523809523807</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="G23" t="n">
-        <v>0.402980403537865</v>
+        <v>0.3970149253731327</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.061508513708513</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4469605359446145</v>
+        <v>0.420563847429518</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.258432116032116</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4400209527896083</v>
+        <v>0.4371475953565493</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.049046603505426</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4050531063565619</v>
+        <v>0.3966832504145927</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.027695545195545</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>0.332582413256542</v>
+        <v>0.3306799336650073</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.516697598697601</v>
+        <v>1.4</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2057263971149538</v>
+        <v>0.1983416252072968</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.126628800828801</v>
+        <v>1.133333333333334</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.04752213846591948</v>
+        <v>0.0477611940298506</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.4078589858514594</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -2416,67 +2416,67 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2802106135986727</v>
+        <v>0.267661691542288</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.493533333333333</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8468503505918639</v>
+        <v>0.83714759535655</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3.507971021296098</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9104264019010276</v>
+        <v>0.9747927031509113</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3.86006089140764</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9267635346760238</v>
+        <v>0.9137645107794353</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.821812680783269</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6985108553598514</v>
+        <v>0.723714759535654</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.713460424738378</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="V24" t="n">
-        <v>0.356534350758692</v>
+        <v>0.401990049751242</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.508872011264971</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07661584742429861</v>
+        <v>0.08988391376451066</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.4732194485310486</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2532753928768841</v>
+        <v>0.1698175787728013</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.106152525252525</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7619021558872293</v>
+        <v>0.709784411276948</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3.298399855699854</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8612943464495699</v>
+        <v>0.8643449419568814</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.859601261701262</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7756781211786173</v>
+        <v>0.7873963515754553</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.406256361938715</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4863916819555948</v>
+        <v>0.4819237147595353</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2.04243949884538</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.113515699080311</v>
+        <v>0.1121061359867329</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.577947569979761</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="26">
@@ -2582,67 +2582,67 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5045496683250407</v>
+        <v>0.5253731343283581</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.502839682539681</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6387581419501807</v>
+        <v>0.723383084577114</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.761609478103598</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6914358442828588</v>
+        <v>0.744278606965174</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.385783643154232</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6696508410329295</v>
+        <v>0.713432835820894</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.21575469127822</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5337640131013256</v>
+        <v>0.550248756218904</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.275207954400831</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3440864443131682</v>
+        <v>0.344278606965174</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.55226671481691</v>
+        <v>1.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07540209422879299</v>
+        <v>0.072636815920398</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.4100029941503951</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.888371475953553</v>
+        <v>4.024875621890533</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>18.82666666666664</v>
+        <v>20.46666666666667</v>
       </c>
       <c r="G27" t="n">
-        <v>2.464274674247795</v>
+        <v>2.617247097844106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.26906666666667</v>
+        <v>10.86666666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>0.959395459211875</v>
+        <v>1.044444444444444</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.566847089947093</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3956490030008675</v>
+        <v>0.401990049751242</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2.34460711162476</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1603279001816312</v>
+        <v>0.185737976782752</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8930332852332848</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>0.06133084067213407</v>
+        <v>0.07131011608623533</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.5865508937456305</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0262177855025805</v>
+        <v>0.02951907131011605</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2595229974818211</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.003507190830937095</v>
+        <v>0.00298507462686567</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.03527621249190809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2757,58 +2757,58 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.434978292520083</v>
+        <v>1.421890547263681</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>6.503387940714259</v>
+        <v>6.400000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>1.998481331438041</v>
+        <v>2.036815920398</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>8.931838095238085</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="P28" t="n">
-        <v>1.428391301965206</v>
+        <v>1.545273631840795</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.296420281027658</v>
+        <v>6.466666666666668</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8593876247288162</v>
+        <v>0.8683250414593693</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4.153601793338102</v>
+        <v>4.466666666666666</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4095707296873087</v>
+        <v>0.3933665008291867</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.798184576063585</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05399397457158642</v>
+        <v>0.05737976782752899</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.3920445099210259</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.36575985153597</v>
+        <v>0.377114427860696</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.076594179894179</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4397999368238166</v>
+        <v>0.46865671641791</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.443642424242424</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4303449998683822</v>
+        <v>0.44776119402985</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2.085706397306399</v>
+        <v>2.2</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4390550205460642</v>
+        <v>0.446766169154228</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.012563575422399</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>0.38823439444382</v>
+        <v>0.423880597014924</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.00543364043364</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3298035562189786</v>
+        <v>0.327363184079602</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.515118666518667</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>0.198437429255837</v>
+        <v>0.1970149253731342</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.101178295778296</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.04855937723599406</v>
+        <v>0.0477611940298506</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.4010478943601045</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2914,67 +2914,67 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9542992655768761</v>
+        <v>0.929353233830844</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.128619047619045</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.427559330571767</v>
+        <v>1.507462686567164</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>5.686710712163654</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.352706872106366</v>
+        <v>1.435820895522388</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>5.596179129829055</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9653236938096594</v>
+        <v>1.082587064676616</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.149900420321498</v>
+        <v>4.6</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6408249689486926</v>
+        <v>0.690547263681592</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2.893698074127089</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3689924859272448</v>
+        <v>0.351243781094526</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.647388463743666</v>
+        <v>1.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07369937122060738</v>
+        <v>0.06567164179104459</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.4120685978265071</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.326734745319859</v>
+        <v>2.919402985074621</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>14.33601774408254</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="M31" t="n">
-        <v>2.566943062465442</v>
+        <v>2.42487562189054</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>11.5107111111111</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="P31" t="n">
-        <v>1.233922861403299</v>
+        <v>1.183084577114427</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.137581949688083</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4971508546732423</v>
+        <v>0.485572139303482</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.242402419802418</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1666730632551529</v>
+        <v>0.1545605306799331</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9529221001221001</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02498578009423772</v>
+        <v>0.02487562189054724</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.2307720567246422</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.779302542841352</v>
+        <v>1.798673300165837</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>9.484001587301584</v>
+        <v>9.066666666666668</v>
       </c>
       <c r="M32" t="n">
-        <v>3.525218476520708</v>
+        <v>3.53466003316748</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>14.34978341658341</v>
+        <v>16.86666666666667</v>
       </c>
       <c r="P32" t="n">
-        <v>1.464504769857009</v>
+        <v>1.483250414593697</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.527644444444443</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="S32" t="n">
-        <v>0.4987924188580902</v>
+        <v>0.5373134328358201</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.636666137566142</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1614496775382346</v>
+        <v>0.1585406301824211</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.7425729677729663</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01824521835268096</v>
+        <v>0.01824212271973464</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.2140122406877001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.114039800995024</v>
+        <v>1.286235489220563</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>4.548000000000003</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J33" t="n">
-        <v>3.269137732600054</v>
+        <v>3.548590381426186</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>13.1458538124114</v>
+        <v>13.06666666666667</v>
       </c>
       <c r="M33" t="n">
-        <v>1.704363759844354</v>
+        <v>1.953897180762839</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>6.311603174603182</v>
+        <v>8.066666666666666</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7600341052428636</v>
+        <v>0.7917081260364833</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.111474506974512</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3007376135197022</v>
+        <v>0.318739635157544</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.597704029304027</v>
+        <v>1.6</v>
       </c>
       <c r="V33" t="n">
-        <v>0.09916686935691887</v>
+        <v>0.1051409618573796</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5965389605521176</v>
+        <v>0.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01341659140943601</v>
+        <v>0.01426202321724709</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.1903442562264721</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.371451077943616</v>
+        <v>1.095522388059701</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.209777777777782</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="G34" t="n">
-        <v>1.901271144278599</v>
+        <v>1.924046434494189</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.684775757575755</v>
+        <v>8.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.555378043239235</v>
+        <v>1.611940298507462</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>6.42284338624339</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9465374966057561</v>
+        <v>1.069651741293531</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>4.367551378686676</v>
+        <v>4.8</v>
       </c>
       <c r="P34" t="n">
-        <v>0.6717915434459287</v>
+        <v>0.6411276948590373</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.980195001382492</v>
+        <v>2.8</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3203241093784104</v>
+        <v>0.3446102819237133</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.471612602212602</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1230766432388321</v>
+        <v>0.1412935323383084</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.816105555555554</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.02179583037194966</v>
+        <v>0.02255389718076278</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2032038281979454</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
@@ -3329,67 +3329,67 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6411184847766924</v>
+        <v>0.6305140961857366</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.821612698412699</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9154215658050735</v>
+        <v>0.9250414593698159</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>3.923022249697328</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9275408670931042</v>
+        <v>0.959203980099502</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.954082344029092</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8671992663462507</v>
+        <v>0.8321724709784398</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.403952427572431</v>
+        <v>3.466666666666666</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6293613851582428</v>
+        <v>0.6222222222222213</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.588528210049042</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.343398671689072</v>
+        <v>0.3592039800995013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.496548002951529</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.06110995118053889</v>
+        <v>0.07893864013266987</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.4153202850320283</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4993144278606957</v>
+        <v>0.3366500829187393</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.207222222222222</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="M36" t="n">
-        <v>1.780834138829659</v>
+        <v>1.626202321724709</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.593371428571431</v>
+        <v>6.933333333333334</v>
       </c>
       <c r="P36" t="n">
-        <v>1.754342601401127</v>
+        <v>1.740630182421226</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.022448930045983</v>
+        <v>7.466666666666666</v>
       </c>
       <c r="S36" t="n">
-        <v>1.031226012645394</v>
+        <v>1.186733001658374</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>4.446143214661876</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4733061916756603</v>
+        <v>0.5253731343283574</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>2.133566912716913</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.09336112319594894</v>
+        <v>0.1124378109452735</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.4883118961177413</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1871254047224192</v>
+        <v>0.1270315091210613</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.022879365079365</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4900096541103994</v>
+        <v>0.4885572139303473</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.350633333333332</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>0.638055954474859</v>
+        <v>0.6009950248756214</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.736395440289557</v>
+        <v>2.6</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6246389025088548</v>
+        <v>0.612935323383084</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.618356613756611</v>
+        <v>2.6</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5275327796305394</v>
+        <v>0.5641791044776107</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.311513756613757</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4110397648562867</v>
+        <v>0.4328358208955214</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.792425716955904</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2586033795386928</v>
+        <v>0.2809286898839127</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.255141789090133</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.06290428130008206</v>
+        <v>0.06865671641791027</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.4005821713724426</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.200002653399668</v>
+        <v>1.20066334991708</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.233400000000004</v>
+        <v>5.2</v>
       </c>
       <c r="G38" t="n">
-        <v>3.397136268238631</v>
+        <v>3.299834162520726</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>15.03986666666666</v>
+        <v>13.53333333333333</v>
       </c>
       <c r="J38" t="n">
-        <v>1.875994713246949</v>
+        <v>1.824543946932006</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.945891982091983</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7331576275990447</v>
+        <v>0.7678275290215587</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.681792892292892</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="P38" t="n">
-        <v>0.304281603885334</v>
+        <v>0.3087893864013253</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.669517171717172</v>
+        <v>1.6</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1220589770005191</v>
+        <v>0.1160862354892205</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8315690476190477</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0490625624881843</v>
+        <v>0.0427860696517412</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.3124885114885117</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.006350169472718994</v>
+        <v>0.00398009950248756</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.08680179007663839</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9063062465450523</v>
+        <v>0.9469320066334989</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.107746031746029</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>1.389313432835819</v>
+        <v>1.444112769485903</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.072</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>1.313927851602975</v>
+        <v>1.386733001658375</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5.835223280423275</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="M39" t="n">
-        <v>1.055286196468636</v>
+        <v>1.088888888888889</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>4.666924120759418</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6491539959326351</v>
+        <v>0.7356550580431174</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.146807086831731</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4922543529037547</v>
+        <v>0.45804311774461</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.226151883490893</v>
+        <v>2.2</v>
       </c>
       <c r="V39" t="n">
-        <v>0.2503959682866903</v>
+        <v>0.2315091210613593</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.256313266338304</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.04487741331820925</v>
+        <v>0.04344941956882246</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.4005571713724426</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3753,58 +3753,58 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4399697608637895</v>
+        <v>0.4378109452736301</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.216775240216725</v>
+        <v>2.2</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5913672625881571</v>
+        <v>0.573134328358208</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.676362893533484</v>
+        <v>2.4</v>
       </c>
       <c r="P40" t="n">
-        <v>0.6143870774057327</v>
+        <v>0.624875621890546</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.74166349206349</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5291699710276817</v>
+        <v>0.5084577114427861</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.272100793650793</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3507161406093335</v>
+        <v>0.347263681592038</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.607683334596684</v>
+        <v>1.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.08824921380598254</v>
+        <v>0.0915422885572138</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.5271697046449706</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
@@ -3845,49 +3845,49 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.525332006633499</v>
+        <v>1.488225538971808</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>6.345799999999994</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="P41" t="n">
-        <v>2.013864676616906</v>
+        <v>2.006965174129347</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.643322751322756</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="S41" t="n">
-        <v>1.436076016465568</v>
+        <v>1.477280265339966</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.093249554149557</v>
+        <v>5.533333333333334</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7165414598484241</v>
+        <v>0.7273631840796005</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.89517061087061</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.1306238648029692</v>
+        <v>0.1207296849087892</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.7162736117378844</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.277054644526275</v>
+        <v>2.319734660033153</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.295327272727269</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>2.613400772592054</v>
+        <v>2.76384742951906</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>10.33391355195086</v>
+        <v>11.2</v>
       </c>
       <c r="M42" t="n">
-        <v>1.58157303215027</v>
+        <v>1.617578772802653</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>6.634951213818859</v>
+        <v>6.933333333333334</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7928675443894049</v>
+        <v>0.7897180762852393</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.825797200338869</v>
+        <v>3.266666666666666</v>
       </c>
       <c r="S42" t="n">
-        <v>0.3401733554449966</v>
+        <v>0.351907131011608</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.531546031746033</v>
+        <v>1.6</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1160033167495854</v>
+        <v>0.1223880597014924</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.6193698412698408</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01541083574670054</v>
+        <v>0.01525704809286898</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.2079236074127334</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43">
@@ -3993,67 +3993,67 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9542992655768761</v>
+        <v>0.929353233830844</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.128619047619045</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.424891337205266</v>
+        <v>1.507462686567164</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.692858860311802</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.363637476659358</v>
+        <v>1.435820895522388</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.583290240940166</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>0.9535021398149273</v>
+        <v>1.082587064676616</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.146870790691868</v>
+        <v>4.6</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6324278530371485</v>
+        <v>0.690547263681592</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.859626068355084</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>0.373975704810054</v>
+        <v>0.351243781094526</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.66179154174272</v>
+        <v>1.8</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.07260549706454414</v>
+        <v>0.06567164179104459</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.4120763506117535</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -4094,49 +4094,49 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.166576308931516</v>
+        <v>2.06268656716416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.05180720390719</v>
+        <v>7.599999999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>2.430638474295187</v>
+        <v>2.37213930348258</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.048711111111103</v>
+        <v>9.6</v>
       </c>
       <c r="S44" t="n">
-        <v>1.379061756632901</v>
+        <v>1.299502487562188</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.299554208754209</v>
+        <v>5.400000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5686952854773738</v>
+        <v>0.5791044776119401</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.441848725348722</v>
+        <v>2.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.07099723604201216</v>
+        <v>0.07064676616915419</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.416688247459216</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.094271973465993</v>
+        <v>2.149253731343273</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.713333333333344</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>2.649850201374071</v>
+        <v>2.55257048092868</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.6747619047619</v>
+        <v>10.8</v>
       </c>
       <c r="J45" t="n">
-        <v>1.579305127395174</v>
+        <v>1.579104477611939</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>7.019814855514862</v>
+        <v>6.599999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9252502649092187</v>
+        <v>0.8524046434494187</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3.731210456210453</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="P45" t="n">
-        <v>0.4241189015241245</v>
+        <v>0.3800995024875614</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2.468643288320874</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1978392087183132</v>
+        <v>0.1794361525704808</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.093061504943857</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07371993471794454</v>
+        <v>0.07827529021558867</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.507121693121693</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.009016707467951234</v>
+        <v>0.008623548922056381</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1957934004756251</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.221917281318277</v>
+        <v>1.400995024875621</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.713555555555548</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>3.207699416890451</v>
+        <v>3.441459369817566</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.67386984866985</v>
+        <v>15.73333333333333</v>
       </c>
       <c r="P46" t="n">
-        <v>1.731649398280314</v>
+        <v>1.718076285240463</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.849205683205684</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7032242175366554</v>
+        <v>0.6703150912106134</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.357360606060607</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="V46" t="n">
-        <v>0.2099230514096189</v>
+        <v>0.2142620232172469</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.209688888888889</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.03273414672668395</v>
+        <v>0.02288557213930345</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.2567779500823247</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.215542288557203</v>
+        <v>2.243781094527353</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>8.517999999999999</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="J47" t="n">
-        <v>3.85301816919747</v>
+        <v>3.8033167495854</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>14.28049761136557</v>
+        <v>14.6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.239892513622365</v>
+        <v>1.374461028192371</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>6.049598412698419</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="P47" t="n">
-        <v>0.4441452854773743</v>
+        <v>0.4928689883913753</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>2.503665608465607</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="S47" t="n">
-        <v>0.170336278922846</v>
+        <v>0.1830845771144276</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.193634295334296</v>
+        <v>1.2</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05721812093866519</v>
+        <v>0.05538971807628513</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.4903461839056337</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.00536671363833937</v>
+        <v>0.004975124378109447</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.1062977326068813</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3343798783858477</v>
+        <v>0.1031509121061353</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.579333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>1.099737147595355</v>
+        <v>1.033830845771144</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4.541466666666666</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>1.38565883305933</v>
+        <v>1.427197346600331</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>5.672056277056276</v>
+        <v>6.2</v>
       </c>
       <c r="M48" t="n">
-        <v>1.071916606467702</v>
+        <v>1.257379767827528</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>4.860894442718212</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="P48" t="n">
-        <v>0.7266896332914067</v>
+        <v>0.9545605306799333</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>3.314754236047611</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4957074413759972</v>
+        <v>0.6401326699834159</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2.1749739431306</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="V48" t="n">
-        <v>0.2669014714044465</v>
+        <v>0.2981757877280253</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>1.374518190370943</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.05215069910741539</v>
+        <v>0.06235489220563833</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.4005571713724426</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2000076732738414</v>
+        <v>0.207960199004974</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9612281866281867</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.5240389007344224</v>
+        <v>0.5184079601990039</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>2.425431439802027</v>
+        <v>2.2</v>
       </c>
       <c r="P49" t="n">
-        <v>0.5872087735923549</v>
+        <v>0.571144278606964</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>2.768780952380947</v>
+        <v>2.4</v>
       </c>
       <c r="S49" t="n">
-        <v>0.5444720932375161</v>
+        <v>0.54228855721393</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>2.770703703703703</v>
+        <v>2.8</v>
       </c>
       <c r="V49" t="n">
-        <v>0.366113230286334</v>
+        <v>0.373134328358208</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>1.717670322270324</v>
+        <v>1.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09077340829430364</v>
+        <v>0.1004975124378108</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.5567790025555229</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1938506672984279</v>
+        <v>0.1270315091210613</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.023346031746032</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4805161217720912</v>
+        <v>0.467993366500828</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2.070238095238095</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6072375802564849</v>
+        <v>0.5946932006633494</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>2.774596017490135</v>
+        <v>2.6</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5744469340847964</v>
+        <v>0.5900497512437807</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>2.505296873496871</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="P50" t="n">
-        <v>0.4925890823659465</v>
+        <v>0.5034825870646753</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>2.232377777777777</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="S50" t="n">
-        <v>0.399679935695214</v>
+        <v>0.4112769485903807</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.743091950722135</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="V50" t="n">
-        <v>0.2547748247996265</v>
+        <v>0.2630182421227187</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.183987194148405</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.05850770009429689</v>
+        <v>0.06069651741293514</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.4005821713724426</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -4675,49 +4675,49 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.392302191423832</v>
+        <v>0.350248756218904</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2.111202549302551</v>
+        <v>1.8</v>
       </c>
       <c r="P51" t="n">
-        <v>0.4342294479981033</v>
+        <v>0.4029850746268641</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>2.124000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3965515754560512</v>
+        <v>0.372139303482586</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2.048799999999999</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>0.2911956408434004</v>
+        <v>0.281592039800994</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>1.466666666666668</v>
+        <v>1.4</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0745588354523677</v>
+        <v>0.0736318407960198</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.4039999999999991</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>3.137232327374106</v>
+        <v>3.1250414593698</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>12.81930170940172</v>
+        <v>15.93333333333333</v>
       </c>
       <c r="P52" t="n">
-        <v>2.513350035536599</v>
+        <v>2.71873963515754</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>9.155488888888888</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="S52" t="n">
-        <v>1.203411976194066</v>
+        <v>1.189386401326699</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>4.969553342953344</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3762620232172471</v>
+        <v>0.3701492537313421</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>1.763133333333335</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.04943346758272121</v>
+        <v>0.04809286898839127</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.4134806496243874</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9103062465450531</v>
+        <v>0.9469320066334989</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3.878146031746033</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>1.412009950248755</v>
+        <v>1.444112769485903</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>6.047999999999999</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>1.40209962907923</v>
+        <v>1.386733001658375</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>5.995258667911608</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="M53" t="n">
-        <v>1.112523097820463</v>
+        <v>1.088888888888889</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>5.147188242041185</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="P53" t="n">
-        <v>0.6998860765800142</v>
+        <v>0.7356550580431174</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>3.316907904601279</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="S53" t="n">
-        <v>0.4892237355664207</v>
+        <v>0.45804311774461</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2.211686449143106</v>
+        <v>2.2</v>
       </c>
       <c r="V53" t="n">
-        <v>0.2584831066190786</v>
+        <v>0.2315091210613593</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>1.343776518117898</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.05098561017018716</v>
+        <v>0.04344941956882246</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.4062771879543013</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -4906,67 +4906,67 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3702089749664366</v>
+        <v>0.3990049751243774</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.779041847041847</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4272072678933368</v>
+        <v>0.5124378109452726</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.999045204795205</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4438960929617638</v>
+        <v>0.5379767827529013</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.980141545600371</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="P54" t="n">
-        <v>0.4183771805134714</v>
+        <v>0.5379767827529007</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2.133643693343693</v>
+        <v>2.733333333333334</v>
       </c>
       <c r="S54" t="n">
-        <v>0.3515951675006387</v>
+        <v>0.4252072968490867</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.657778454878453</v>
+        <v>1.866666666666666</v>
       </c>
       <c r="V54" t="n">
-        <v>0.2211311350893428</v>
+        <v>0.2666666666666653</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>1.224938013838013</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.06631788176813043</v>
+        <v>0.06235489220563833</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.4135093499054687</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -4989,67 +4989,67 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4626984719260831</v>
+        <v>0.4480928689883907</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2.283699999999999</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J55" t="n">
-        <v>0.616823681974925</v>
+        <v>0.5936981757877281</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>2.530620837114956</v>
+        <v>2.6</v>
       </c>
       <c r="M55" t="n">
-        <v>0.6424732782492006</v>
+        <v>0.6606965174129346</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>2.820173544973545</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="P55" t="n">
-        <v>0.603485764705167</v>
+        <v>0.6318407960198987</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>2.81246048026048</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="S55" t="n">
-        <v>0.5101245598146087</v>
+        <v>0.5127694859038133</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>2.26196187455475</v>
+        <v>2.2</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3325496539254746</v>
+        <v>0.319402985074626</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1.461572710418385</v>
+        <v>1.6</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.07627050700267841</v>
+        <v>0.07064676616915407</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.414875367724109</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.299676133818961</v>
+        <v>3.239800995024873</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>14.57848590740072</v>
+        <v>15.4</v>
       </c>
       <c r="M56" t="n">
-        <v>2.627927349543754</v>
+        <v>2.67230514096184</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>11.39728526658526</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="P56" t="n">
-        <v>1.219287230036324</v>
+        <v>1.179767827529021</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>4.915051099057235</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="S56" t="n">
-        <v>0.4359526867825365</v>
+        <v>0.4351575456053054</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>2.16028765308765</v>
+        <v>2.2</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1438252546789859</v>
+        <v>0.1422885572139302</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9407078144078146</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01566285455837692</v>
+        <v>0.01492537313432834</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.2197793706738412</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.780089718076288</v>
+        <v>1.821227197346596</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>9.445223809523805</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="M57" t="n">
-        <v>3.63638900842109</v>
+        <v>3.728358208955214</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>14.49627018907019</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="P57" t="n">
-        <v>1.463860299899106</v>
+        <v>1.526036484245439</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>5.527644444444443</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="S57" t="n">
-        <v>0.5012202795546077</v>
+        <v>0.5575456053067986</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>2.637999470899475</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="V57" t="n">
-        <v>0.161019826791966</v>
+        <v>0.1522388059701491</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0.7479063011062996</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02216976229961296</v>
+        <v>0.02222222222222218</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.2140122406877001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1847616678512197</v>
+        <v>0.1273631840796019</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.05472380952381</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5014222577588242</v>
+        <v>0.5144278606965167</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2.566699999999999</v>
+        <v>2.6</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6334510741147548</v>
+        <v>0.638474295190712</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2.857075045869162</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>0.6478760407713664</v>
+        <v>0.6351575456053059</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2.711112262682848</v>
+        <v>2.6</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5481620223060507</v>
+        <v>0.6096185737976766</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>2.499187830687831</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="S58" t="n">
-        <v>0.4109051048231193</v>
+        <v>0.435489220563846</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1.811725716955904</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2602513719027169</v>
+        <v>0.2882255389718066</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>1.289207715996417</v>
+        <v>1.4</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.06109134109858464</v>
+        <v>0.06865671641791027</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.4060429286950421</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.137636997754401</v>
+        <v>2.339303482587055</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>8.945457611887029</v>
+        <v>9</v>
       </c>
       <c r="M59" t="n">
-        <v>2.546954821132425</v>
+        <v>2.397346600331666</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>12.00410325600326</v>
+        <v>10.06666666666666</v>
       </c>
       <c r="P59" t="n">
-        <v>1.425844512104984</v>
+        <v>1.32669983416252</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>6.219656607663986</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="S59" t="n">
-        <v>0.6735178023219386</v>
+        <v>0.5804311774461021</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>2.856957522107524</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="V59" t="n">
-        <v>0.2227534769352725</v>
+        <v>0.1950248756218894</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1.024053923853924</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.03514791386980431</v>
+        <v>0.03117744610281914</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.2954837317838471</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1751594250967381</v>
+        <v>0.1548922056384743</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9722412698412696</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3818059188186046</v>
+        <v>0.3970149253731327</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.633977777777778</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4110530615137575</v>
+        <v>0.420563847429518</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>2.074797195397196</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4312698156183217</v>
+        <v>0.4371475953565493</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.992119130977955</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>0.3784125207296833</v>
+        <v>0.3966832504145927</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>1.822185714285712</v>
+        <v>2</v>
       </c>
       <c r="S60" t="n">
-        <v>0.3173900733686796</v>
+        <v>0.3306799336650073</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>1.564065852665851</v>
+        <v>1.4</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1901198926004897</v>
+        <v>0.1983416252072968</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1.047533752304341</v>
+        <v>1.133333333333334</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.04583578141040825</v>
+        <v>0.0477611940298506</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.4010478943601045</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>3.152814543528847</v>
+        <v>3.254063018242113</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>12.50020952380952</v>
+        <v>13.6</v>
       </c>
       <c r="J61" t="n">
-        <v>2.689500355765575</v>
+        <v>2.824212271973453</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>11.08467052852075</v>
+        <v>11.13333333333333</v>
       </c>
       <c r="M61" t="n">
-        <v>1.22417406043376</v>
+        <v>1.26401326699834</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>5.279185342435342</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="P61" t="n">
-        <v>0.4919034865355755</v>
+        <v>0.5114427860696513</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>2.023945767195771</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1998324725578456</v>
+        <v>0.2076285240464342</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0.9673775311834136</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="V61" t="n">
-        <v>0.05649812639912129</v>
+        <v>0.06268656716417893</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.5225874606874603</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.009794875591452029</v>
+        <v>0.01293532338308457</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.1557534025393018</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7767263681592032</v>
+        <v>0.7167495854063013</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>3.360000000000002</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.578339204180735</v>
+        <v>2.569485903814246</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>9.561728751858169</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="M62" t="n">
-        <v>1.841996121843879</v>
+        <v>1.983084577114424</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>6.747628197945845</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>1.118746055171505</v>
+        <v>1.047097844112769</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>4.526470070111592</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="S62" t="n">
-        <v>0.4992513944439015</v>
+        <v>0.4872305140961853</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>2.472192555810202</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="V62" t="n">
-        <v>0.1824115630995344</v>
+        <v>0.165837479270315</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0.8255126984126981</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.02966563263907419</v>
+        <v>0.02985074626865667</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.2495690685442895</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>3.188988391376441</v>
+        <v>3.28059701492536</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>14.88933333333335</v>
+        <v>15</v>
       </c>
       <c r="G63" t="n">
-        <v>2.612766169154213</v>
+        <v>2.76218905472636</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>10.832</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>1.326813898760164</v>
+        <v>1.269651741293532</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>5.505013756613756</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>0.578113605852411</v>
+        <v>0.5393034825870641</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>3.097328079545729</v>
+        <v>3</v>
       </c>
       <c r="P63" t="n">
-        <v>0.2920424307036241</v>
+        <v>0.249751243781094</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>1.547502380952382</v>
+        <v>1.2</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1215068348732529</v>
+        <v>0.0915422885572138</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.7206037703037699</v>
+        <v>0.6</v>
       </c>
       <c r="V63" t="n">
-        <v>0.04630466094620311</v>
+        <v>0.034825870646766</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.3200506974506975</v>
+        <v>0.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.003342900151746987</v>
+        <v>0.00398009950248756</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.03049264691307623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1735474847982307</v>
+        <v>0.1548922056384743</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9647746031746028</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3909084063807933</v>
+        <v>0.3970149253731327</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.724553968253968</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4269037774092493</v>
+        <v>0.420563847429518</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>2.030883198283199</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="M64" t="n">
-        <v>0.4381954848910062</v>
+        <v>0.4371475953565493</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.989452464311288</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>0.4025045555430853</v>
+        <v>0.3966832504145927</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>2.010070148370148</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>0.3273551685278046</v>
+        <v>0.3306799336650073</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1.563065852665851</v>
+        <v>1.4</v>
       </c>
       <c r="V64" t="n">
-        <v>0.197249395877754</v>
+        <v>0.1983416252072968</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>1.043173290543879</v>
+        <v>1.133333333333334</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.04685909342177989</v>
+        <v>0.0477611940298506</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.4010478943601045</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>4.080424622558191</v>
+        <v>3.68325041459368</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>17.57691626891627</v>
+        <v>15.26666666666667</v>
       </c>
       <c r="P65" t="n">
-        <v>2.604334691980205</v>
+        <v>2.568490878938626</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>11.29819807599808</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="S65" t="n">
-        <v>0.8955232725262567</v>
+        <v>0.9903814262023207</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>4.031360317460318</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>0.2786290610439853</v>
+        <v>0.3097844112769473</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>1.720190476190479</v>
+        <v>1.8</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.03445289425886436</v>
+        <v>0.03449419568822547</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.3428239220623431</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5133836373687111</v>
+        <v>0.480597014925372</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.336088888888888</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>1.724457877280265</v>
+        <v>1.713764510779436</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>8.044133333333333</v>
+        <v>7.866666666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>1.674456379478269</v>
+        <v>1.63217247097844</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>6.995555921855923</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M66" t="n">
-        <v>1.065939556651847</v>
+        <v>1.161857379767827</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>4.475896607531905</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="P66" t="n">
-        <v>0.6732238872491682</v>
+        <v>0.6842454394693194</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>2.860110017234659</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3381241975618322</v>
+        <v>0.3502487562189047</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>1.553218037518038</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="V66" t="n">
-        <v>0.1332635894601067</v>
+        <v>0.1366500829187396</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>0.8091187830687814</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.02516386322356464</v>
+        <v>0.02620232172470974</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.2032038281979454</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
@@ -5985,67 +5985,67 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.480438640132669</v>
+        <v>1.441791044776119</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>6.58793333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J67" t="n">
-        <v>2.011287846904171</v>
+        <v>2.010281923714753</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>8.507975123901439</v>
+        <v>8.6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.615532230028124</v>
+        <v>1.539303482587063</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>6.812768674136323</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>0.9647321278300338</v>
+        <v>0.9416252072968486</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>4.061660249381326</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="S67" t="n">
-        <v>0.5622001434239156</v>
+        <v>0.5210613598673286</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>2.669638282651508</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="V67" t="n">
-        <v>0.2227516472988713</v>
+        <v>0.1910447761194029</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>1.055017978921663</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.03744826660349039</v>
+        <v>0.0381426202321724</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.3078216400965622</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1821515438679616</v>
+        <v>0.1830845771144278</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9039999999999999</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5238875588388018</v>
+        <v>0.5044776119402979</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2.19139790273939</v>
+        <v>1.8</v>
       </c>
       <c r="M68" t="n">
-        <v>0.5843749405725041</v>
+        <v>0.567164179104476</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>2.437830743330742</v>
+        <v>2.2</v>
       </c>
       <c r="P68" t="n">
-        <v>0.5443917081260358</v>
+        <v>0.560199004975124</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>2.2487</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
-        <v>0.4937636967326017</v>
+        <v>0.467661691542288</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>2.33189932289932</v>
+        <v>2.2</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3329070762685484</v>
+        <v>0.33731343283582</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>1.367281528582274</v>
+        <v>1.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.07416992210544844</v>
+        <v>0.0766169154228854</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.4647199862274077</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2.220761194029838</v>
+        <v>1.923714759535649</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>8.457333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="J69" t="n">
-        <v>3.792580248190895</v>
+        <v>3.712437810945266</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>14.03263281641393</v>
+        <v>15.8</v>
       </c>
       <c r="M69" t="n">
-        <v>1.208783179341386</v>
+        <v>1.448092868988391</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>5.578801587301601</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="P69" t="n">
-        <v>0.4393982113243301</v>
+        <v>0.5472636815920385</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>2.270831746031742</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="S69" t="n">
-        <v>0.1468017768301348</v>
+        <v>0.1907131011608623</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>1.062539682539682</v>
+        <v>1.2</v>
       </c>
       <c r="V69" t="n">
-        <v>0.05960830230695594</v>
+        <v>0.06500829187396341</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4565896769050089</v>
+        <v>0.6</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.007776293526907546</v>
+        <v>0.00762852404643448</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.1712241745667579</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70">
@@ -6243,58 +6243,58 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4230911170458425</v>
+        <v>0.365174129353232</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>2.196906986248472</v>
+        <v>1.6</v>
       </c>
       <c r="M70" t="n">
-        <v>0.5802367011098345</v>
+        <v>0.510447761194028</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>2.688875591946184</v>
+        <v>1.8</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6028507313581928</v>
+        <v>0.5134328358208939</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>2.707965079365077</v>
+        <v>2.2</v>
       </c>
       <c r="S70" t="n">
-        <v>0.5269363612985496</v>
+        <v>0.44278606965174</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>2.312695238095238</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>0.3452820060871392</v>
+        <v>0.301492537313432</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>1.61780117971453</v>
+        <v>1.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.08648437256651445</v>
+        <v>0.06865671641791041</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.5265109744862404</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6335,49 +6335,49 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.9506618573797675</v>
+        <v>0.9800995024875606</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>3.703323853923847</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="P71" t="n">
-        <v>1.361538971807629</v>
+        <v>1.408955223880596</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>5.2019365079365</v>
+        <v>5.466666666666668</v>
       </c>
       <c r="S71" t="n">
-        <v>1.197733783353186</v>
+        <v>1.226202321724709</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>5.116242039442037</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6897528052378785</v>
+        <v>0.6799336650082912</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>2.729302482702483</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1546746809299048</v>
+        <v>0.1532338308457711</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.7948234720770633</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -6409,58 +6409,58 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9233750138197894</v>
+        <v>0.9303482587064668</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>4.060349686696745</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="M72" t="n">
-        <v>1.329583499804262</v>
+        <v>1.344941956882254</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>5.674976369626296</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="P72" t="n">
-        <v>1.265650295368141</v>
+        <v>1.296517412935323</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>5.483643693127538</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="S72" t="n">
-        <v>0.8617433544974813</v>
+        <v>0.8975124378109447</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>4.019801758006775</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4519376352262262</v>
+        <v>0.470978441127694</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>2.042522132758389</v>
+        <v>2.2</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.09225513105769523</v>
+        <v>0.09850746268656707</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.5400405680559381</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
   </sheetData>
